--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="746">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -560,22 +560,6 @@
   </si>
   <si>
     <t>The effective dates for the parent element.</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderIdentity</t>
-  </si>
-  <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-identity-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Gender Identity with business dates.</t>
-  </si>
-  <si>
-    <t>Gender Identity with business dates.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -2676,7 +2660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO131"/>
+  <dimension ref="A1:AO130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4382,41 +4366,43 @@
         <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4452,19 +4438,19 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4479,7 +4465,7 @@
         <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -4503,7 +4489,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4513,28 +4499,26 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4571,11 +4555,9 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
@@ -4583,7 +4565,7 @@
         <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4595,19 +4577,19 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4615,10 +4597,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4629,30 +4611,28 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4688,41 +4668,43 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4737,14 +4719,14 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4756,15 +4738,17 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4801,34 +4785,34 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4845,24 +4829,26 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4871,17 +4857,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4918,19 +4902,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4945,7 +4929,7 @@
         <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4965,7 +4949,7 @@
         <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>203</v>
@@ -5047,7 +5031,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -5082,11 +5066,9 @@
         <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -5098,25 +5080,29 @@
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I21" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -5140,13 +5126,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -5164,22 +5150,22 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -5188,7 +5174,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -5196,10 +5182,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5216,25 +5202,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -5259,13 +5245,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5298,7 +5284,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -5307,7 +5293,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5315,10 +5301,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5326,7 +5312,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -5341,19 +5327,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5366,7 +5352,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -5378,13 +5364,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -5402,7 +5388,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5403,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5426,7 +5412,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5434,10 +5420,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5460,20 +5446,18 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5485,7 +5469,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5521,7 +5505,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5536,7 +5520,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5545,7 +5529,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5553,10 +5537,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5564,7 +5548,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5579,16 +5563,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5602,7 +5586,7 @@
         <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>80</v>
@@ -5638,7 +5622,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5650,10 +5634,10 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5662,7 +5646,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5670,10 +5654,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5696,16 +5680,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5755,7 +5739,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5767,10 +5751,10 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5779,7 +5763,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5787,12 +5771,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5801,7 +5787,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5810,21 +5796,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5872,31 +5858,31 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5904,14 +5890,12 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5920,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5932,18 +5916,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5991,22 +5973,22 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -6015,7 +5997,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -6023,21 +6005,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -6049,15 +6031,17 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -6094,34 +6078,34 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -6138,12 +6122,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>135</v>
       </c>
@@ -6152,7 +6138,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -6164,16 +6150,16 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6211,19 +6197,19 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6255,16 +6241,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6277,24 +6261,26 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -6318,13 +6304,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -6342,31 +6328,31 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6374,10 +6360,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6385,7 +6371,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -6394,32 +6380,32 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>80</v>
@@ -6437,13 +6423,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6461,7 +6447,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6462,7 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6485,7 +6471,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6493,10 +6479,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6519,32 +6505,32 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>80</v>
@@ -6556,13 +6542,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6580,7 +6566,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6595,7 +6581,7 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6604,7 +6590,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6612,10 +6598,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6638,20 +6624,18 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6663,7 +6647,7 @@
         <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>80</v>
@@ -6699,7 +6683,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6714,7 +6698,7 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6723,7 +6707,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6731,10 +6715,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6742,7 +6726,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -6757,16 +6741,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6780,7 +6764,7 @@
         <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>80</v>
@@ -6816,7 +6800,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6828,10 +6812,10 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6840,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6848,10 +6832,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6874,16 +6858,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6933,7 +6917,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6945,10 +6929,10 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6957,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6965,10 +6949,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6985,28 +6969,32 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="R37" t="s" s="2">
         <v>80</v>
       </c>
@@ -7050,7 +7038,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -7062,19 +7050,19 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -7082,10 +7070,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7096,106 +7084,104 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7203,10 +7189,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7217,32 +7203,28 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -7290,31 +7272,31 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7322,21 +7304,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -7348,15 +7330,17 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7393,34 +7377,34 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7437,24 +7421,26 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -7463,17 +7449,15 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7510,19 +7494,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7537,7 +7521,7 @@
         <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7554,14 +7538,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7573,25 +7555,29 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7615,13 +7601,11 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7639,22 +7623,22 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7663,7 +7647,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7671,10 +7655,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7691,25 +7675,25 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7734,11 +7718,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7756,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7771,7 +7757,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7780,7 +7766,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7788,14 +7774,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7814,20 +7800,18 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7875,7 +7859,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7890,7 +7874,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7899,7 +7883,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7907,21 +7891,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7933,16 +7917,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7992,13 +7976,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>100</v>
@@ -8007,7 +7991,7 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -8016,7 +8000,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -8024,14 +8008,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8050,16 +8034,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8109,7 +8093,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -8124,7 +8108,7 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -8133,7 +8117,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -8141,10 +8125,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8167,16 +8151,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8226,7 +8210,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8241,7 +8225,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -8250,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8258,10 +8242,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8272,7 +8256,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8284,18 +8268,20 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8343,22 +8329,22 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -8367,7 +8353,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8375,10 +8361,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8389,10 +8375,10 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8401,19 +8387,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8462,31 +8448,31 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8494,10 +8480,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8508,32 +8494,28 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8581,31 +8563,31 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>372</v>
+        <v>109</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8613,21 +8595,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8639,15 +8621,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8684,34 +8668,34 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8728,24 +8712,26 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8754,17 +8740,15 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8801,19 +8785,19 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8828,7 +8812,7 @@
         <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8845,43 +8829,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8906,13 +8890,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8930,22 +8912,22 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8954,7 +8936,7 @@
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8962,10 +8944,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8988,18 +8970,20 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -9023,11 +9007,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -9045,7 +9031,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -9054,13 +9040,13 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>383</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -9069,7 +9055,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -9077,10 +9063,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9088,7 +9074,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -9097,25 +9083,25 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9140,13 +9126,11 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -9164,7 +9148,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9179,7 +9163,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -9188,7 +9172,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -9196,10 +9180,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9216,26 +9200,24 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9259,11 +9241,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -9281,7 +9265,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9296,7 +9280,7 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -9305,7 +9289,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -9313,10 +9297,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9339,7 +9323,7 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>404</v>
@@ -9348,7 +9332,7 @@
         <v>405</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>406</v>
+        <v>249</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9398,7 +9382,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9410,10 +9394,10 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>109</v>
+        <v>358</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -9422,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9430,10 +9414,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9447,7 +9431,7 @@
         <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9456,18 +9440,20 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9491,13 +9477,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -9515,7 +9501,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9527,19 +9513,19 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>363</v>
+        <v>162</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9547,10 +9533,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9564,29 +9550,25 @@
         <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9610,13 +9592,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9634,7 +9616,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>193</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9643,22 +9625,22 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9666,10 +9648,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9680,7 +9662,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9692,13 +9674,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9737,31 +9719,29 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9781,12 +9761,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9795,10 +9777,10 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9807,13 +9789,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>173</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9852,17 +9834,19 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9871,7 +9855,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>144</v>
@@ -9894,13 +9878,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>428</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9922,13 +9906,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9979,7 +9963,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -10011,13 +9995,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>203</v>
+        <v>426</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
@@ -10027,7 +10011,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>89</v>
@@ -10039,13 +10023,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>204</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>206</v>
+        <v>429</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10096,7 +10080,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10131,11 +10115,9 @@
         <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10144,10 +10126,10 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -10156,13 +10138,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10213,19 +10195,19 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -10245,10 +10227,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10262,25 +10244,29 @@
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10328,7 +10314,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10337,33 +10323,33 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10377,29 +10363,25 @@
         <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10447,7 +10429,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>438</v>
+        <v>193</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10456,33 +10438,33 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10493,7 +10475,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10505,13 +10487,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10550,31 +10532,29 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10594,12 +10574,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10608,7 +10590,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10620,13 +10602,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
+        <v>173</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10665,17 +10647,19 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10684,7 +10668,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>144</v>
@@ -10707,13 +10691,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>80</v>
@@ -10726,7 +10710,7 @@
         <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
@@ -10735,13 +10719,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10792,7 +10776,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10824,13 +10808,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>203</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
@@ -10840,7 +10824,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>89</v>
@@ -10852,13 +10836,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>204</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>206</v>
+        <v>451</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10909,7 +10893,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10941,14 +10925,12 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10957,10 +10939,10 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10969,13 +10951,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11026,19 +11008,19 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>201</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -11058,10 +11040,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11075,16 +11057,16 @@
         <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>458</v>
@@ -11092,8 +11074,12 @@
       <c r="M72" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11141,7 +11127,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11150,22 +11136,22 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11173,10 +11159,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11190,29 +11176,25 @@
         <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11260,7 +11242,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>461</v>
+        <v>193</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11269,22 +11251,22 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -11292,10 +11274,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11306,7 +11288,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11318,13 +11300,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11363,31 +11345,29 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11407,12 +11387,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11421,10 +11403,10 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
@@ -11433,13 +11415,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>426</v>
+        <v>173</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11478,17 +11460,19 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11497,7 +11481,7 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>144</v>
@@ -11520,13 +11504,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>472</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>80</v>
@@ -11548,13 +11532,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11605,7 +11589,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11637,13 +11621,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>80</v>
@@ -11653,7 +11637,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>89</v>
@@ -11665,13 +11649,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>204</v>
+        <v>471</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>205</v>
+        <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>206</v>
+        <v>473</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11722,7 +11706,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11757,7 +11741,7 @@
         <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>475</v>
@@ -11770,7 +11754,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>89</v>
@@ -11839,7 +11823,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11874,11 +11858,9 @@
         <v>479</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11890,7 +11872,7 @@
         <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11899,13 +11881,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11956,19 +11938,19 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11988,10 +11970,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12002,28 +11984,32 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12071,31 +12057,31 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12103,10 +12089,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12117,32 +12103,28 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>488</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
+        <v>191</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12190,31 +12172,31 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>193</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>493</v>
+        <v>109</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12222,21 +12204,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12248,15 +12230,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12293,34 +12277,34 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -12337,12 +12321,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>135</v>
       </c>
@@ -12351,7 +12337,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12363,13 +12349,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>137</v>
+        <v>495</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>200</v>
+        <v>496</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>139</v>
@@ -12410,19 +12396,19 @@
         <v>80</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12454,13 +12440,13 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>135</v>
@@ -12491,7 +12477,7 @@
         <v>501</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12541,7 +12527,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12573,16 +12559,16 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>503</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12592,7 +12578,7 @@
         <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
@@ -12601,17 +12587,15 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>504</v>
+        <v>199</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>505</v>
+        <v>200</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12660,7 +12644,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12675,7 +12659,7 @@
         <v>144</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -12692,13 +12676,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>203</v>
+        <v>505</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>80</v>
@@ -12720,13 +12704,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>204</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>205</v>
+        <v>507</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>206</v>
+        <v>508</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12777,7 +12761,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12812,11 +12796,9 @@
         <v>509</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12828,25 +12810,29 @@
         <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I87" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12858,7 +12844,7 @@
         <v>80</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>80</v>
@@ -12870,13 +12856,13 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12894,22 +12880,22 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>201</v>
+        <v>517</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12918,7 +12904,7 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12926,10 +12912,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12946,7 +12932,7 @@
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>89</v>
@@ -12955,17 +12941,15 @@
         <v>111</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12977,7 +12961,7 @@
         <v>80</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>80</v>
@@ -12989,13 +12973,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -13013,7 +12997,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13028,7 +13012,7 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -13037,7 +13021,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13045,10 +13029,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13071,18 +13055,20 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13094,7 +13080,7 @@
         <v>80</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>80</v>
@@ -13106,13 +13092,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13130,7 +13116,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13145,7 +13131,7 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -13154,7 +13140,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13162,10 +13148,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13176,7 +13162,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13188,20 +13174,18 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13213,7 +13197,7 @@
         <v>80</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>80</v>
@@ -13249,13 +13233,13 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>100</v>
@@ -13264,7 +13248,7 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>327</v>
+        <v>540</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -13273,7 +13257,7 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13281,21 +13265,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13307,16 +13291,16 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13330,7 +13314,7 @@
         <v>80</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>80</v>
@@ -13366,13 +13350,13 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>100</v>
@@ -13381,7 +13365,7 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -13390,7 +13374,7 @@
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13398,14 +13382,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13424,16 +13408,16 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>348</v>
+        <v>554</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13447,7 +13431,7 @@
         <v>80</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>80</v>
@@ -13483,7 +13467,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13498,7 +13482,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -13507,7 +13491,7 @@
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13515,14 +13499,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13541,16 +13525,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>559</v>
+        <v>343</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13564,7 +13548,7 @@
         <v>80</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>80</v>
@@ -13600,7 +13584,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13615,7 +13599,7 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -13624,7 +13608,7 @@
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13632,14 +13616,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13658,16 +13642,16 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13681,7 +13665,7 @@
         <v>80</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>80</v>
@@ -13717,7 +13701,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13732,7 +13716,7 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -13741,7 +13725,7 @@
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13749,14 +13733,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>572</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13775,16 +13759,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>348</v>
+        <v>577</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13798,7 +13782,7 @@
         <v>80</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>80</v>
@@ -13834,7 +13818,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13849,7 +13833,7 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -13858,7 +13842,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13866,10 +13850,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13892,18 +13876,20 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13915,7 +13901,7 @@
         <v>80</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>80</v>
@@ -13951,7 +13937,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13963,10 +13949,10 @@
         <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>584</v>
+        <v>358</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13975,7 +13961,7 @@
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13983,10 +13969,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14006,22 +13992,22 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>254</v>
+        <v>591</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -14034,7 +14020,7 @@
         <v>80</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>80</v>
@@ -14046,13 +14032,13 @@
         <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -14070,7 +14056,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14082,19 +14068,19 @@
         <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>363</v>
+        <v>595</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14102,10 +14088,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14128,19 +14114,19 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>223</v>
+        <v>599</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -14165,31 +14151,31 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF98" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14204,16 +14190,16 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>601</v>
+        <v>109</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14221,10 +14207,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14247,20 +14233,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>604</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>605</v>
+        <v>191</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -14308,7 +14290,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>603</v>
+        <v>193</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14317,22 +14299,22 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>609</v>
+        <v>109</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14340,21 +14322,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
@@ -14366,15 +14348,17 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L100" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14411,31 +14395,31 @@
         <v>80</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>109</v>
@@ -14455,24 +14439,26 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="D101" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>80</v>
@@ -14481,17 +14467,15 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14528,19 +14512,19 @@
         <v>80</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14555,7 +14539,7 @@
         <v>144</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
@@ -14572,13 +14556,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>614</v>
+        <v>198</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>80</v>
@@ -14600,13 +14584,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14657,7 +14641,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14689,13 +14673,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>203</v>
+        <v>426</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>80</v>
@@ -14705,7 +14689,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>89</v>
@@ -14717,13 +14701,13 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>204</v>
+        <v>612</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>205</v>
+        <v>613</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>206</v>
+        <v>614</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14774,7 +14758,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14806,14 +14790,12 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14825,7 +14807,7 @@
         <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>80</v>
@@ -14834,16 +14816,20 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14891,7 +14877,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>201</v>
+        <v>615</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14900,22 +14886,22 @@
         <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>144</v>
+        <v>621</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
@@ -14923,10 +14909,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14949,19 +14935,19 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15010,7 +14996,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15022,10 +15008,10 @@
         <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>109</v>
@@ -15034,7 +15020,7 @@
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>628</v>
+        <v>80</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -15042,10 +15028,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15056,7 +15042,7 @@
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
@@ -15068,20 +15054,16 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>630</v>
+        <v>190</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>631</v>
+        <v>191</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15129,25 +15111,25 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>629</v>
+        <v>193</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>635</v>
+        <v>80</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>636</v>
+        <v>109</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -15161,21 +15143,21 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>80</v>
@@ -15187,15 +15169,17 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L107" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15232,34 +15216,34 @@
         <v>80</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>80</v>
@@ -15276,14 +15260,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15296,24 +15280,26 @@
         <v>80</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>137</v>
+        <v>636</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>200</v>
+        <v>637</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
       </c>
@@ -15349,19 +15335,19 @@
         <v>80</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>201</v>
+        <v>638</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15400,7 +15386,7 @@
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15413,25 +15399,25 @@
         <v>80</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O109" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15456,13 +15442,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15480,7 +15466,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15492,19 +15478,19 @@
         <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>102</v>
+        <v>645</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>80</v>
+        <v>646</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>80</v>
@@ -15512,10 +15498,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15526,7 +15512,7 @@
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>80</v>
@@ -15538,19 +15524,19 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15575,13 +15561,13 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>648</v>
+        <v>80</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>649</v>
+        <v>80</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -15599,13 +15585,13 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>100</v>
@@ -15614,7 +15600,7 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>650</v>
+        <v>301</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>109</v>
@@ -15623,7 +15609,7 @@
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15631,10 +15617,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15645,7 +15631,7 @@
         <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>80</v>
@@ -15657,19 +15643,19 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>656</v>
+        <v>365</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -15718,22 +15704,22 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>109</v>
@@ -15764,7 +15750,7 @@
         <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>80</v>
@@ -15776,7 +15762,7 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>659</v>
@@ -15788,7 +15774,7 @@
         <v>661</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>370</v>
+        <v>662</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -15843,16 +15829,16 @@
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>371</v>
+        <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>372</v>
+        <v>488</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>109</v>
@@ -15861,7 +15847,7 @@
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>80</v>
@@ -15869,10 +15855,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15895,19 +15881,19 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>488</v>
+        <v>111</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>664</v>
+        <v>408</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>665</v>
       </c>
       <c r="N113" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>80</v>
@@ -15932,13 +15918,13 @@
         <v>80</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>80</v>
@@ -15956,7 +15942,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15971,7 +15957,7 @@
         <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>493</v>
+        <v>162</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>109</v>
@@ -15980,7 +15966,7 @@
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>80</v>
@@ -15988,10 +15974,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16014,19 +16000,19 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>413</v>
+        <v>669</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>670</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>80</v>
@@ -16051,13 +16037,13 @@
         <v>80</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>80</v>
@@ -16075,7 +16061,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16084,13 +16070,13 @@
         <v>88</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>100</v>
+        <v>673</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>162</v>
+        <v>674</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>109</v>
@@ -16099,7 +16085,7 @@
         <v>80</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>80</v>
@@ -16107,10 +16093,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16133,20 +16119,18 @@
         <v>80</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>80</v>
       </c>
@@ -16194,7 +16178,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -16203,10 +16187,10 @@
         <v>88</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>678</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>679</v>
@@ -16240,7 +16224,7 @@
         <v>78</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>80</v>
@@ -16252,7 +16236,7 @@
         <v>80</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>251</v>
+        <v>625</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>682</v>
@@ -16261,9 +16245,11 @@
         <v>683</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>80</v>
       </c>
@@ -16317,25 +16303,25 @@
         <v>78</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>685</v>
+        <v>80</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>80</v>
@@ -16343,10 +16329,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16357,7 +16343,7 @@
         <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>80</v>
@@ -16369,20 +16355,16 @@
         <v>80</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>630</v>
+        <v>190</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>687</v>
+        <v>191</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>80</v>
       </c>
@@ -16430,25 +16412,25 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>686</v>
+        <v>193</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>691</v>
+        <v>109</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>692</v>
+        <v>80</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>80</v>
@@ -16462,21 +16444,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>80</v>
@@ -16488,15 +16470,17 @@
         <v>80</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L118" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N118" s="2"/>
+      <c r="N118" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>80</v>
@@ -16533,34 +16517,34 @@
         <v>80</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>80</v>
@@ -16577,14 +16561,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16597,24 +16581,26 @@
         <v>80</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>137</v>
+        <v>636</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>200</v>
+        <v>637</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>80</v>
       </c>
@@ -16650,19 +16636,19 @@
         <v>80</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>201</v>
+        <v>638</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -16694,45 +16680,45 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>641</v>
+        <v>692</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>139</v>
+        <v>694</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>182</v>
+        <v>695</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
@@ -16757,13 +16743,13 @@
         <v>80</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>80</v>
@@ -16781,31 +16767,31 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>102</v>
+        <v>696</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>80</v>
+        <v>697</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>80</v>
+        <v>698</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>80</v>
@@ -16813,10 +16799,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16824,7 +16810,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>88</v>
@@ -16839,19 +16825,19 @@
         <v>80</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>80</v>
@@ -16876,13 +16862,13 @@
         <v>80</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>80</v>
@@ -16900,10 +16886,10 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>88</v>
@@ -16915,16 +16901,16 @@
         <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>80</v>
@@ -16932,21 +16918,21 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>80</v>
+        <v>708</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>80</v>
@@ -16958,20 +16944,18 @@
         <v>80</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>291</v>
+        <v>709</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>708</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>80</v>
       </c>
@@ -17019,31 +17003,31 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>710</v>
+        <v>109</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>80</v>
@@ -17051,21 +17035,21 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>713</v>
+        <v>80</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>80</v>
@@ -17074,21 +17058,23 @@
         <v>80</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>714</v>
+        <v>255</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>718</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>719</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>80</v>
       </c>
@@ -17136,31 +17122,31 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>109</v>
+        <v>720</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>719</v>
+        <v>80</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>80</v>
@@ -17168,10 +17154,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17182,31 +17168,31 @@
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>260</v>
+        <v>625</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>80</v>
@@ -17255,25 +17241,25 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>725</v>
+        <v>109</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -17287,10 +17273,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17301,32 +17287,28 @@
         <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>630</v>
+        <v>190</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>727</v>
+        <v>191</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>730</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>80</v>
       </c>
@@ -17374,25 +17356,25 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>726</v>
+        <v>193</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>731</v>
+        <v>109</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>80</v>
@@ -17406,21 +17388,21 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>80</v>
@@ -17432,15 +17414,17 @@
         <v>80</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L126" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N126" s="2"/>
+      <c r="N126" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>80</v>
@@ -17477,34 +17461,34 @@
         <v>80</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC126" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>80</v>
@@ -17521,14 +17505,16 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="D127" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17538,7 +17524,7 @@
         <v>79</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>80</v>
@@ -17547,17 +17533,15 @@
         <v>80</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>136</v>
+        <v>731</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>137</v>
+        <v>732</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>80</v>
@@ -17594,19 +17578,19 @@
         <v>80</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -17621,7 +17605,7 @@
         <v>144</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>80</v>
@@ -17641,13 +17625,11 @@
         <v>734</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>735</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>80</v>
+        <v>635</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17657,25 +17639,29 @@
         <v>79</v>
       </c>
       <c r="H128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I128" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I128" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J128" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>736</v>
+        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>737</v>
+        <v>636</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>80</v>
       </c>
@@ -17723,7 +17709,7 @@
         <v>80</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>201</v>
+        <v>638</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -17738,7 +17724,7 @@
         <v>144</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>80</v>
@@ -17755,46 +17741,44 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>136</v>
+        <v>736</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>641</v>
+        <v>737</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>642</v>
+        <v>738</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>80</v>
       </c>
@@ -17842,31 +17826,31 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>80</v>
@@ -17874,10 +17858,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17900,7 +17884,7 @@
         <v>89</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>741</v>
+        <v>111</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>742</v>
@@ -17909,7 +17893,7 @@
         <v>743</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>744</v>
+        <v>343</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17935,13 +17919,13 @@
         <v>80</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>80</v>
+        <v>743</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>80</v>
+        <v>744</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>80</v>
@@ -17959,7 +17943,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>88</v>
@@ -17971,10 +17955,10 @@
         <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>190</v>
+        <v>745</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>109</v>
@@ -17983,131 +17967,14 @@
         <v>80</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>745</v>
+        <v>80</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO131" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO131">
+  <autoFilter ref="A1:AO130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18117,7 +17984,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:13:26+00:00</t>
+    <t>2024-10-15T18:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T18:43:47+00:00</t>
+    <t>2024-10-23T18:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:46:58+00:00</t>
+    <t>2024-10-24T18:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:05:53+00:00</t>
+    <t>2024-10-31T18:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T18:32:51+00:00</t>
+    <t>2024-12-09T22:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:50:07+00:00</t>
+    <t>2024-12-09T22:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:59:04+00:00</t>
+    <t>2024-12-09T23:04:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:04:44+00:00</t>
+    <t>2025-01-11T00:36:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,10 +847,10 @@
     <t>JHN</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>Jurisdictional Health Number</t>
+  </si>
+  <si>
+    <t>Federal patient and person health numbers used by all jurisdictions across Canada</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -5796,16 +5796,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5873,16 +5873,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T00:36:26+00:00</t>
+    <t>2025-01-17T23:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T23:10:16+00:00</t>
+    <t>2025-02-07T23:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T23:01:35+00:00</t>
+    <t>2025-05-12T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -964,7 +964,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ca-baseline-name:Patient.name.given  or Patient.name.family or both SHALL be present {family.exists() or given.exists()}</t>
+ipa-pat-2:Either Patient.name.given and/or Patient.name.family and/or Patient.name.text SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists() or text.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>name</t>
@@ -2669,17 +2669,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.91796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.80078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2688,27 +2688,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="86.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6405,10 +6405,10 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient.xlsx
+++ b/release-branch/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
